--- a/src/test/java/com/inetbaning/TestData/XlsloginData.xlsx
+++ b/src/test/java/com/inetbaning/TestData/XlsloginData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="11430" windowHeight="4200"/>
+    <workbookView xWindow="5190" yWindow="4035" windowWidth="15090" windowHeight="4005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>username</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>UtabAry</t>
+  </si>
+  <si>
+    <t>mngr443111</t>
+  </si>
+  <si>
+    <t>evehejU</t>
   </si>
 </sst>
 </file>
@@ -370,7 +376,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,10 +394,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -404,10 +410,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
